--- a/src/main/resources/templates/file/danh_sach_template.xlsx
+++ b/src/main/resources/templates/file/danh_sach_template.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tranquangminhnhat/Documents/MinhNhat/Quan Ly Quan Su/MilitaryManagement/src/main/resources/templates/file/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F21B22-A0B7-844A-BBA6-6FE1158E9A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37080" yWindow="200" windowWidth="37520" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37080" yWindow="204" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="DANH SACH TRICH NGANG" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'DANH SACH TRICH NGANG'!$A$1:$AB$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'DANH SACH TRICH NGANG'!$8:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -156,12 +150,6 @@
     <t>NHÂN VIÊN QUÂN LỰC - QUÂN KHÍ</t>
   </si>
   <si>
-    <t>Kiên Giang, ngày  13  tháng 02 năm 2025</t>
-  </si>
-  <si>
-    <t>TRÍCH NGANG CHIẾN SĨ MỚI NHẬP NGŨ 02 NĂM 2025 = 405 đ/c ( An Giang = 145 đ/c; Kiên Giang = 260 đ/c ) Từng Đại đội</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -241,12 +229,18 @@
   </si>
   <si>
     <t>${row25}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRÍCH NGANG CHIẾN SĨ MỚI NHẬP NGŨ 02 NĂM 2026 </t>
+  </si>
+  <si>
+    <t>An Giang, ngày      tháng    năm 2026</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;\-0;;@"/>
   </numFmts>
@@ -293,7 +287,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -647,71 +641,71 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 24" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 3 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 44" xfId="11" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 48" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Normal 5" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Normal 8" xfId="10" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="style3" xfId="7" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 10" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="8"/>
+    <cellStyle name="Normal 2 2" xfId="3"/>
+    <cellStyle name="Normal 24" xfId="12"/>
+    <cellStyle name="Normal 3" xfId="5"/>
+    <cellStyle name="Normal 3 2" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="4"/>
+    <cellStyle name="Normal 44" xfId="11"/>
+    <cellStyle name="Normal 48" xfId="9"/>
+    <cellStyle name="Normal 5" xfId="6"/>
+    <cellStyle name="Normal 8" xfId="10"/>
+    <cellStyle name="style3" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -746,7 +740,7 @@
         <xdr:cNvPr id="3" name="Straight Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -796,7 +790,7 @@
         <xdr:cNvPr id="4" name="Straight Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -846,7 +840,7 @@
         <xdr:cNvPr id="7" name="Straight Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1136,62 +1130,62 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="J3" sqref="J3:Y3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" customWidth="1"/>
-    <col min="5" max="6" width="2.7109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" style="11" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" style="11" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" style="11" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="2.7265625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="4.81640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="6.81640625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="5.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1796875" style="11" customWidth="1"/>
+    <col min="13" max="13" width="5.54296875" style="11" customWidth="1"/>
+    <col min="14" max="14" width="6.81640625" style="11" customWidth="1"/>
+    <col min="15" max="15" width="8.453125" style="11" customWidth="1"/>
+    <col min="16" max="16" width="5.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="11" customWidth="1"/>
-    <col min="20" max="20" width="22.5703125" style="16" customWidth="1"/>
-    <col min="21" max="21" width="16.5703125" style="16" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.140625" style="16" customWidth="1"/>
-    <col min="24" max="24" width="9.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.42578125" style="11" customWidth="1"/>
-    <col min="26" max="26" width="8.85546875" style="16"/>
-    <col min="27" max="16384" width="8.85546875" style="1"/>
+    <col min="18" max="18" width="3.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1796875" style="11" customWidth="1"/>
+    <col min="20" max="20" width="22.54296875" style="16" customWidth="1"/>
+    <col min="21" max="21" width="16.54296875" style="16" customWidth="1"/>
+    <col min="22" max="22" width="15.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.1796875" style="16" customWidth="1"/>
+    <col min="24" max="24" width="9.453125" style="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.453125" style="11" customWidth="1"/>
+    <col min="26" max="26" width="8.81640625" style="16"/>
+    <col min="27" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:26" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
       <c r="J1" s="26" t="s">
         <v>29</v>
       </c>
@@ -1204,21 +1198,21 @@
       <c r="Q1" s="26"/>
       <c r="R1" s="26"/>
       <c r="S1" s="26"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
       <c r="Y1" s="26"/>
       <c r="Z1" s="6"/>
     </row>
-    <row r="2" spans="1:26" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="26"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
@@ -1236,15 +1230,15 @@
       <c r="Q2" s="26"/>
       <c r="R2" s="26"/>
       <c r="S2" s="26"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
       <c r="Y2" s="26"/>
       <c r="Z2" s="6"/>
     </row>
-    <row r="3" spans="1:26" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="E3" s="5"/>
@@ -1252,27 +1246,27 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="38"/>
+      <c r="J3" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="41"/>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="E4" s="5"/>
@@ -1298,13 +1292,13 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="6"/>
     </row>
-    <row r="5" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="26"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
@@ -1320,21 +1314,21 @@
       <c r="Q5" s="26"/>
       <c r="R5" s="26"/>
       <c r="S5" s="26"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
       <c r="Y5" s="26"/>
       <c r="Z5" s="6"/>
     </row>
-    <row r="6" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B6" s="26"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
@@ -1350,15 +1344,15 @@
       <c r="Q6" s="26"/>
       <c r="R6" s="26"/>
       <c r="S6" s="26"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
       <c r="Y6" s="26"/>
       <c r="Z6" s="6"/>
     </row>
-    <row r="7" spans="1:26" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="4" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="E7" s="5"/>
@@ -1384,77 +1378,77 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="6"/>
     </row>
-    <row r="8" spans="1:26" s="7" customFormat="1" ht="51" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:26" s="7" customFormat="1" ht="51" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="30" t="s">
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="L8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="33" t="s">
+      <c r="M8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" s="30" t="s">
+      <c r="N8" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="30" t="s">
+      <c r="P8" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="33" t="s">
+      <c r="Q8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="R8" s="32" t="s">
+      <c r="R8" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="S8" s="32"/>
-      <c r="T8" s="30" t="s">
+      <c r="S8" s="31"/>
+      <c r="T8" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="U8" s="32" t="s">
+      <c r="U8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="43" t="s">
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="37" t="s">
         <v>23</v>
       </c>
       <c r="Z8" s="17"/>
     </row>
-    <row r="9" spans="1:26" s="7" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
+    <row r="9" spans="1:26" s="7" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="44"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="8" t="s">
         <v>4</v>
       </c>
@@ -1464,23 +1458,23 @@
       <c r="G9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="34"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="36"/>
       <c r="R9" s="9" t="s">
         <v>16</v>
       </c>
       <c r="S9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="T9" s="31"/>
+      <c r="T9" s="30"/>
       <c r="U9" s="10" t="s">
         <v>19</v>
       </c>
@@ -1493,87 +1487,87 @@
       <c r="X9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="Y9" s="44"/>
+      <c r="Y9" s="38"/>
       <c r="Z9" s="17"/>
     </row>
-    <row r="10" spans="1:26" ht="38.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="38.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="F10" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="G10" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="H10" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="I10" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="J10" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="K10" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="L10" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="M10" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="N10" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="20" t="s">
+      <c r="O10" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="P10" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="20" t="s">
+      <c r="Q10" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="20" t="s">
+      <c r="R10" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="Q10" s="20" t="s">
+      <c r="S10" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="R10" s="20" t="s">
+      <c r="T10" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="S10" s="20" t="s">
+      <c r="U10" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="T10" s="23" t="s">
+      <c r="V10" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="U10" s="24" t="s">
+      <c r="W10" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="V10" s="24" t="s">
+      <c r="X10" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="W10" s="24" t="s">
+      <c r="Y10" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="X10" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y10" s="25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:26" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
@@ -1600,8 +1594,8 @@
       <c r="X11" s="15"/>
       <c r="Y11" s="18"/>
     </row>
-    <row r="12" spans="1:26" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="26" t="s">
@@ -1625,15 +1619,15 @@
       <c r="S17" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="6"/>
     </row>
-    <row r="18" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1661,7 +1655,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="6"/>
     </row>
-    <row r="19" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1674,7 +1668,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -1691,7 +1685,7 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="6"/>
     </row>
-    <row r="20" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1719,7 +1713,7 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="6"/>
     </row>
-    <row r="21" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1747,7 +1741,7 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="6"/>
     </row>
-    <row r="22" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="26"/>
@@ -1767,15 +1761,15 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="26"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="6"/>
     </row>
-    <row r="23" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
@@ -1798,7 +1792,7 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="6"/>
     </row>
-    <row r="24" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
@@ -1821,121 +1815,135 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="6"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="X25" s="4"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="X26" s="4"/>
     </row>
-    <row r="27" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S27" s="2"/>
       <c r="V27" s="3"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="16"/>
     </row>
-    <row r="28" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S28" s="2"/>
       <c r="V28" s="3"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S29" s="2"/>
       <c r="V29" s="3"/>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S30" s="2"/>
       <c r="V30" s="3"/>
       <c r="Y30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S31" s="2"/>
       <c r="V31" s="3"/>
       <c r="Y31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S32" s="2"/>
       <c r="V32" s="3"/>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="19:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="19:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S33" s="2"/>
       <c r="V33" s="3"/>
       <c r="Y33" s="2"/>
     </row>
-    <row r="34" spans="19:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="19:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S34" s="2"/>
       <c r="V34" s="3"/>
       <c r="Y34" s="2"/>
     </row>
-    <row r="35" spans="19:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="19:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S35" s="2"/>
       <c r="V35" s="3"/>
       <c r="Y35" s="2"/>
     </row>
-    <row r="36" spans="19:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="19:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S36" s="2"/>
       <c r="V36" s="3"/>
       <c r="Y36" s="2"/>
     </row>
-    <row r="37" spans="19:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="19:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S37" s="2"/>
       <c r="V37" s="3"/>
       <c r="Y37" s="2"/>
     </row>
-    <row r="38" spans="19:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="19:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S38" s="2"/>
       <c r="V38" s="3"/>
       <c r="Y38" s="2"/>
     </row>
-    <row r="39" spans="19:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="19:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S39" s="2"/>
       <c r="V39" s="3"/>
       <c r="Y39" s="2"/>
     </row>
-    <row r="40" spans="19:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="19:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S40" s="2"/>
       <c r="V40" s="3"/>
       <c r="Y40" s="2"/>
     </row>
-    <row r="41" spans="19:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="19:25" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S41" s="2"/>
       <c r="V41" s="3"/>
       <c r="Y41" s="2"/>
     </row>
-    <row r="42" spans="19:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="19:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S42" s="2"/>
       <c r="V42" s="3"/>
       <c r="Y42" s="2"/>
     </row>
-    <row r="43" spans="19:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="19:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S43" s="2"/>
       <c r="V43" s="3"/>
       <c r="Y43" s="2"/>
     </row>
-    <row r="44" spans="19:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="19:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S44" s="2"/>
       <c r="V44" s="3"/>
       <c r="Y44" s="2"/>
     </row>
-    <row r="45" spans="19:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="19:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S45" s="2"/>
       <c r="V45" s="3"/>
       <c r="Y45" s="2"/>
     </row>
-    <row r="46" spans="19:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="19:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S46" s="2"/>
       <c r="V46" s="3"/>
       <c r="Y46" s="2"/>
     </row>
-    <row r="47" spans="19:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="19:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S47" s="2"/>
       <c r="V47" s="3"/>
       <c r="Y47" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:AA9" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:AA9"/>
   <mergeCells count="30">
+    <mergeCell ref="S17:X17"/>
+    <mergeCell ref="S22:X22"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="J1:Y1"/>
+    <mergeCell ref="J2:Y2"/>
+    <mergeCell ref="J3:Y3"/>
     <mergeCell ref="A5:Y5"/>
     <mergeCell ref="A6:Y6"/>
     <mergeCell ref="I8:I9"/>
@@ -1952,20 +1960,6 @@
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="U8:X8"/>
     <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="J1:Y1"/>
-    <mergeCell ref="J2:Y2"/>
-    <mergeCell ref="J3:Y3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="S17:X17"/>
-    <mergeCell ref="S22:X22"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C22:I22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" orientation="landscape" verticalDpi="0" r:id="rId1"/>
